--- a/biology/Médecine/Al-Dakhwar/Al-Dakhwar.xlsx
+++ b/biology/Médecine/Al-Dakhwar/Al-Dakhwar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muhaḍḍabuddin Abd al-Rahim bin Ali bin Hamid al-Dimashqi (en arabe : مهذب الدين عبد الرحيم بن علي بن حامد الدمشقي) connu sous le nom al-Dakhwar (en arabe : الدخوار) (1230-1170) était un médecin arabe qui a servi plusieurs dirigeants de la dynastie ayyoubide[1]. Il était également responsable administrativement de la médecine au Caire et à Damas. Al-Dakhwar a formé ou influencé la plupart des médecins éminents d'Égypte et de Syrie au cours du siècle[2], y compris l'écrivain Ibn Abi Usaybi'a et Ibn al-Nafis, le découvreur de la circulation sanguine dans le corps humain[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muhaḍḍabuddin Abd al-Rahim bin Ali bin Hamid al-Dimashqi (en arabe : مهذب الدين عبد الرحيم بن علي بن حامد الدمشقي) connu sous le nom al-Dakhwar (en arabe : الدخوار) (1230-1170) était un médecin arabe qui a servi plusieurs dirigeants de la dynastie ayyoubide. Il était également responsable administrativement de la médecine au Caire et à Damas. Al-Dakhwar a formé ou influencé la plupart des médecins éminents d'Égypte et de Syrie au cours du siècle, y compris l'écrivain Ibn Abi Usaybi'a et Ibn al-Nafis, le découvreur de la circulation sanguine dans le corps humain.
 Al-Dakhwar a eu le titre Ra'is al-Tibb qui signifie : Chef de la Médecine.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Al-Dakhwar est né et a grandi à Damas[1], le fils d'un oculiste[2]. Initialement, lui aussi était un oculiste à l'hôpital Nuri de Damas[4], mais par la suite, il a étudié la médecine avec Ibn al-Matran[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Dakhwar est né et a grandi à Damas, le fils d'un oculiste. Initialement, lui aussi était un oculiste à l'hôpital Nuri de Damas, mais par la suite, il a étudié la médecine avec Ibn al-Matran.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Médecin des Ayyoubides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1208, al-Adel, le sultan d'Égypte, a dit à son vizir al-Sahib ibn Shukur, qu'il avait besoin d'un autre médecin avec des compétences équivalentes du chef de la médecine de l'époque, Abd al-Aziz al-Sulami. Al-Adel croyait qu'al-Sulami était suffisamment occupé en tant que médecin de l'armée. Ibn Shukur a recommandé al-Dakhwar pour le poste et lui a offert 30 dinars par mois. Al-Dakhwar l'a refusé, citant qu'al-Sulami reçoit 100 dinars par mois et déclarant « Je connais mes capacités dans ce domaine et je n'en prendrai pas moins ! »[5]. Al-Sulami est décédé le 7 juin et peu de temps après al-  Dakhwar lui-même a entré en contact avec al-Adel[4], et ce dernier a été très impressionné par lui. Il l'a non seulement nommé son médecin personnel, mais aussi l'un de ses confidents[1].
-À la mort d'al-Adel, son fils et successeur à Damas, al-Mu'azzam, l'a nommé surintendant principal de l'hôpital Nasiri. Là, il a écrit des livres et a donné des conférences sur la médecine à ses étudiants. Plus tard, lorsque l'autre fils d'al-Adil, al-Ashraf, a annexé Damas après la mort d'al-Mu'azzam, al-Dakhwar a été promu médecin-chef de l'État ayyoubide[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1208, al-Adel, le sultan d'Égypte, a dit à son vizir al-Sahib ibn Shukur, qu'il avait besoin d'un autre médecin avec des compétences équivalentes du chef de la médecine de l'époque, Abd al-Aziz al-Sulami. Al-Adel croyait qu'al-Sulami était suffisamment occupé en tant que médecin de l'armée. Ibn Shukur a recommandé al-Dakhwar pour le poste et lui a offert 30 dinars par mois. Al-Dakhwar l'a refusé, citant qu'al-Sulami reçoit 100 dinars par mois et déclarant « Je connais mes capacités dans ce domaine et je n'en prendrai pas moins ! ». Al-Sulami est décédé le 7 juin et peu de temps après al-  Dakhwar lui-même a entré en contact avec al-Adel, et ce dernier a été très impressionné par lui. Il l'a non seulement nommé son médecin personnel, mais aussi l'un de ses confidents.
+À la mort d'al-Adel, son fils et successeur à Damas, al-Mu'azzam, l'a nommé surintendant principal de l'hôpital Nasiri. Là, il a écrit des livres et a donné des conférences sur la médecine à ses étudiants. Plus tard, lorsque l'autre fils d'al-Adil, al-Ashraf, a annexé Damas après la mort d'al-Mu'azzam, al-Dakhwar a été promu médecin-chef de l'État ayyoubide.
 </t>
         </is>
       </c>
@@ -577,12 +593,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Médecine
-al-Janinah (L'Embryon)
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>al-Janinah (L'Embryon)
 Sharh Taqdimat-il-Ma'rifah (Commentaire sur l'Introduction de la Connaissance)
-Mukhtasar-ul-Hawil-il-Razi (Résumé de Al-Hawi d'Al-Razi)
-Poésie
-Kitab ul-Aghani (une version du « Livre des Chansons » par Abalphat d'Ispahan)</t>
+Mukhtasar-ul-Hawil-il-Razi (Résumé de Al-Hawi d'Al-Razi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Al-Dakhwar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Al-Dakhwar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Kitab ul-Aghani (une version du « Livre des Chansons » par Abalphat d'Ispahan)</t>
         </is>
       </c>
     </row>
